--- a/biology/Zoologie/Aname_(genre)/Aname_(genre).xlsx
+++ b/biology/Zoologie/Aname_(genre)/Aname_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aname est un genre d'araignées mygalomorphes de la famille des Anamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aname est un genre d'araignées mygalomorphes de la famille des Anamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 12/09/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 12/09/2023) :
 Aname aragog Harvey, Framenau, Wojcieszek, Rix &amp; Harvey, 2012
 Aname atra (Strand, 1913)
 Aname aurea Rainbow &amp; Pulleine, 1918
@@ -625,10 +641,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par L. Koch en 1873. Il est placé dans les Nemesiidae par Raven en 1985[2] puis dans les Anamidae par Opatova, Hamilton, Hedin, Montes de Oca, Král et Bond en 2020[3].
-Dekana[4], Dolichosternum[5] et Sungenia[5] ont été placés en synonymie par Raven en 1981[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par L. Koch en 1873. Il est placé dans les Nemesiidae par Raven en 1985 puis dans les Anamidae par Opatova, Hamilton, Hedin, Montes de Oca, Král et Bond en 2020.
+Dekana, Dolichosternum et Sungenia ont été placés en synonymie par Raven en 1981.
 </t>
         </is>
       </c>
@@ -657,7 +675,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1873 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 369-472 (texte intégral).</t>
         </is>
